--- a/medicine/Psychotrope/Un_week-end_à_Napa/Un_week-end_à_Napa.xlsx
+++ b/medicine/Psychotrope/Un_week-end_à_Napa/Un_week-end_à_Napa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_week-end_%C3%A0_Napa</t>
+          <t>Un_week-end_à_Napa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un week-end à Napa (Wine Country) est un film américain réalisé par Amy Poehler, sorti en 2019.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_week-end_%C3%A0_Napa</t>
+          <t>Un_week-end_à_Napa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bande d'amies quinquagénaires se réunit tout un week-end pour célébrer le cinquantième anniversaire d'une des leurs dans la vallée de Napa. Bien décidées à profiter de ce moment, les amies s'enivrent plus que de raison. Avec l'alcool, les langues se délient révélant ainsi de vieilles rancunes, jusqu'à remettre en cause leur amitié.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_week-end_%C3%A0_Napa</t>
+          <t>Un_week-end_à_Napa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Un week-end à Napa
 Titre original : Wine Country
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_week-end_%C3%A0_Napa</t>
+          <t>Un_week-end_à_Napa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amy Poehler : Abby
 Rachel Dratch : Rebecca
